--- a/data/trans_orig/P14B31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89199A0B-4AA3-4B1C-B526-1996CB1F3D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DDB198-A40E-444A-8A6B-25AF0CFBD20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C79E3378-12AB-492C-B87F-D556761ABD53}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF494E2-5FDB-4C2B-AA8C-21EEC14EC2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -84,16 +84,16 @@
     <t>58,43%</t>
   </si>
   <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>43,1%</t>
+    <t>43,46%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,19 +102,19 @@
     <t>72,38%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
   </si>
   <si>
     <t>13,74%</t>
@@ -123,16 +123,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,9%</t>
+    <t>56,54%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>100%</t>
@@ -153,7 +153,7 @@
     <t>20,83%</t>
   </si>
   <si>
-    <t>81,81%</t>
+    <t>80,45%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -165,7 +165,7 @@
     <t>79,17%</t>
   </si>
   <si>
-    <t>18,19%</t>
+    <t>19,55%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -174,49 +174,49 @@
     <t>75,14%</t>
   </si>
   <si>
-    <t>34,73%</t>
+    <t>36,74%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>65,27%</t>
+    <t>63,26%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>30,33%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -228,19 +228,19 @@
     <t>64,52%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>62,31%</t>
   </si>
   <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>46,95%</t>
@@ -249,19 +249,19 @@
     <t>35,48%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>37,69%</t>
   </si>
   <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -303,7 +303,7 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>67,69%</t>
+    <t>65,09%</t>
   </si>
   <si>
     <t>51,63%</t>
@@ -312,13 +312,16 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>61,32%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>32,31%</t>
+    <t>34,91%</t>
   </si>
   <si>
     <t>48,37%</t>
@@ -327,7 +330,10 @@
     <t>72,09%</t>
   </si>
   <si>
-    <t>38,68%</t>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -339,19 +345,19 @@
     <t>55,06%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -360,73 +366,73 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>68,92%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -441,16 +447,16 @@
     <t>33,27%</t>
   </si>
   <si>
-    <t>83,17%</t>
+    <t>82,17%</t>
   </si>
   <si>
     <t>35,28%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
   </si>
   <si>
     <t>62,07%</t>
@@ -459,25 +465,25 @@
     <t>66,73%</t>
   </si>
   <si>
-    <t>16,83%</t>
+    <t>17,83%</t>
   </si>
   <si>
     <t>64,72%</t>
   </si>
   <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
   </si>
   <si>
     <t>51,21%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
   </si>
   <si>
     <t>38,19%</t>
@@ -489,19 +495,19 @@
     <t>45,31%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>48,79%</t>
   </si>
   <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
   </si>
   <si>
     <t>61,81%</t>
@@ -513,10 +519,10 @@
     <t>54,69%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>34,64%</t>
@@ -540,10 +546,10 @@
     <t>41,05%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
   </si>
   <si>
     <t>50,73%</t>
@@ -555,19 +561,19 @@
     <t>45,83%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
   </si>
   <si>
     <t>49,27%</t>
@@ -579,10 +585,10 @@
     <t>54,17%</t>
   </si>
   <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -594,7 +600,7 @@
     <t>23,14%</t>
   </si>
   <si>
-    <t>58,85%</t>
+    <t>57,6%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -606,7 +612,7 @@
     <t>76,86%</t>
   </si>
   <si>
-    <t>41,15%</t>
+    <t>42,4%</t>
   </si>
   <si>
     <t>49,38%</t>
@@ -615,16 +621,16 @@
     <t>80,66%</t>
   </si>
   <si>
-    <t>41,13%</t>
+    <t>41,62%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>50,62%</t>
@@ -633,16 +639,16 @@
     <t>19,34%</t>
   </si>
   <si>
-    <t>58,87%</t>
+    <t>58,38%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>43,43%</t>
@@ -651,9 +657,6 @@
     <t>12,64%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
     <t>26,98%</t>
   </si>
   <si>
@@ -666,9 +669,6 @@
     <t>56,57%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
     <t>87,36%</t>
   </si>
   <si>
@@ -684,109 +684,109 @@
     <t>42,6%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
   </si>
   <si>
     <t>50,99%</t>
   </si>
   <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1680E977-0CC1-4B9F-9A5F-C1382689E89F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CD0245-1C7B-47A1-99FF-B7D662DD8F54}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2267,10 +2267,10 @@
         <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,10 +2285,10 @@
         <v>6223</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
@@ -2300,7 +2300,7 @@
         <v>1970</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>27</v>
@@ -2315,13 +2315,13 @@
         <v>8194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,7 +2377,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2392,7 +2392,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>32</v>
@@ -2404,13 +2404,13 @@
         <v>6498</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -2419,13 +2419,13 @@
         <v>14052</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,7 +2446,7 @@
         <v>34</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -2455,13 +2455,13 @@
         <v>5302</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2470,13 +2470,13 @@
         <v>5302</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>21518</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H28" s="7">
         <v>31</v>
@@ -2559,13 +2559,13 @@
         <v>32617</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M28" s="7">
         <v>51</v>
@@ -2574,13 +2574,13 @@
         <v>54136</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2595,13 @@
         <v>18398</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -2610,13 +2610,13 @@
         <v>19385</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
@@ -2625,13 +2625,13 @@
         <v>37782</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,7 +2687,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5079BC4C-2405-4299-9453-CC8D3260A879}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4FCAB-EAA0-4810-9D68-80D957DD72C9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2728,7 +2728,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2835,7 +2835,7 @@
         <v>1798</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>27</v>
@@ -2850,13 +2850,13 @@
         <v>2078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2865,13 +2865,13 @@
         <v>3876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
         <v>2942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>27</v>
@@ -2901,10 +2901,10 @@
         <v>4167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2916,13 +2916,13 @@
         <v>7109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2990,13 @@
         <v>3284</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3005,13 +3005,13 @@
         <v>2030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3020,13 +3020,13 @@
         <v>5314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3041,13 @@
         <v>3130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3056,10 +3056,10 @@
         <v>3285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3071,13 +3071,13 @@
         <v>6415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3145,7 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
@@ -3163,7 +3163,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>32</v>
@@ -3175,10 +3175,10 @@
         <v>3238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -3196,7 +3196,7 @@
         <v>1763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
@@ -3217,7 +3217,7 @@
         <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3226,13 +3226,13 @@
         <v>1763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3300,13 @@
         <v>2886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3315,10 +3315,10 @@
         <v>3474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -3330,13 +3330,13 @@
         <v>6360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3351,13 @@
         <v>4144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3366,13 +3366,13 @@
         <v>3374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3381,13 +3381,13 @@
         <v>7518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3461,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>2319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -3485,13 +3485,13 @@
         <v>2319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3509,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -3521,7 +3521,7 @@
         <v>2147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
@@ -3536,10 +3536,10 @@
         <v>7703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3610,7 +3610,7 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>27</v>
@@ -3625,10 +3625,10 @@
         <v>8504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -3640,13 +3640,13 @@
         <v>10285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3661,7 @@
         <v>1826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>27</v>
@@ -3676,13 +3676,13 @@
         <v>2038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3691,13 +3691,13 @@
         <v>3864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3771,7 @@
         <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3780,13 +3780,13 @@
         <v>3562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3795,13 +3795,13 @@
         <v>3562</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>32</v>
@@ -3831,10 +3831,10 @@
         <v>4639</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>210</v>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B31-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B31-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18DDB198-A40E-444A-8A6B-25AF0CFBD20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E55056-7047-4FAA-9761-F7DD28D82750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8EF494E2-5FDB-4C2B-AA8C-21EEC14EC2A4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26F45AC1-F5DC-4FD6-A3A0-1DB6088D6DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="256">
   <si>
     <t>Población cuya enfermedad de riñón le limita en 2012 (Tasa respuesta: 1,34%)</t>
   </si>
@@ -84,16 +84,16 @@
     <t>58,43%</t>
   </si>
   <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>86,26%</t>
   </si>
   <si>
-    <t>43,46%</t>
+    <t>42,96%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,19 +102,19 @@
     <t>72,38%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>41,57%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>13,74%</t>
@@ -123,16 +123,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,54%</t>
+    <t>57,04%</t>
   </si>
   <si>
     <t>27,62%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -174,49 +174,49 @@
     <t>75,14%</t>
   </si>
   <si>
-    <t>36,74%</t>
+    <t>35,41%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>69,67%</t>
   </si>
   <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>24,86%</t>
   </si>
   <si>
-    <t>63,26%</t>
+    <t>64,59%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>30,33%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -228,19 +228,19 @@
     <t>64,52%</t>
   </si>
   <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>62,31%</t>
   </si>
   <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
   </si>
   <si>
     <t>46,95%</t>
@@ -249,19 +249,19 @@
     <t>35,48%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>37,69%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -279,7 +279,7 @@
     <t>29,2%</t>
   </si>
   <si>
-    <t>73,0%</t>
+    <t>73,12%</t>
   </si>
   <si>
     <t>73,69%</t>
@@ -294,7 +294,7 @@
     <t>70,8%</t>
   </si>
   <si>
-    <t>27,0%</t>
+    <t>26,88%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -303,7 +303,7 @@
     <t>14,65%</t>
   </si>
   <si>
-    <t>65,09%</t>
+    <t>69,7%</t>
   </si>
   <si>
     <t>51,63%</t>
@@ -312,16 +312,16 @@
     <t>27,91%</t>
   </si>
   <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>34,91%</t>
+    <t>30,3%</t>
   </si>
   <si>
     <t>48,37%</t>
@@ -330,10 +330,10 @@
     <t>72,09%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -345,19 +345,19 @@
     <t>55,06%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
   </si>
   <si>
     <t>23,25%</t>
@@ -366,84 +366,87 @@
     <t>44,94%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
   </si>
   <si>
     <t>53,91%</t>
   </si>
   <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
   </si>
   <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>46,09%</t>
   </si>
   <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
   </si>
   <si>
     <t>41,1%</t>
   </si>
   <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya enfermedad de riñón le limita en 2015 (Tasa respuesta: 1,46%)</t>
+    <t>Población cuya enfermedad de riñón le limita en 2016 (Tasa respuesta: 1,46%)</t>
   </si>
   <si>
     <t>37,93%</t>
   </si>
   <si>
+    <t>85,59%</t>
+  </si>
+  <si>
     <t>33,27%</t>
   </si>
   <si>
@@ -456,12 +459,15 @@
     <t>9,01%</t>
   </si>
   <si>
-    <t>64,04%</t>
+    <t>64,25%</t>
   </si>
   <si>
     <t>62,07%</t>
   </si>
   <si>
+    <t>14,41%</t>
+  </si>
+  <si>
     <t>66,73%</t>
   </si>
   <si>
@@ -471,7 +477,7 @@
     <t>64,72%</t>
   </si>
   <si>
-    <t>35,96%</t>
+    <t>35,75%</t>
   </si>
   <si>
     <t>90,99%</t>
@@ -489,67 +495,73 @@
     <t>38,19%</t>
   </si>
   <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
     <t>41,05%</t>
   </si>
   <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
   </si>
   <si>
     <t>50,73%</t>
@@ -561,19 +573,19 @@
     <t>45,83%</t>
   </si>
   <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>58,95%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>49,27%</t>
@@ -585,10 +597,10 @@
     <t>54,17%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -600,7 +612,7 @@
     <t>23,14%</t>
   </si>
   <si>
-    <t>57,6%</t>
+    <t>58,14%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -612,7 +624,7 @@
     <t>76,86%</t>
   </si>
   <si>
-    <t>42,4%</t>
+    <t>41,86%</t>
   </si>
   <si>
     <t>49,38%</t>
@@ -621,16 +633,16 @@
     <t>80,66%</t>
   </si>
   <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>93,23%</t>
   </si>
   <si>
     <t>50,62%</t>
@@ -639,154 +651,160 @@
     <t>19,34%</t>
   </si>
   <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
     <t>58,38%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
     <t>43,43%</t>
   </si>
   <si>
-    <t>12,64%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
   </si>
   <si>
     <t>26,98%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
   </si>
   <si>
     <t>56,57%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>73,02%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>54,19%</t>
   </si>
   <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>49,01%</t>
   </si>
   <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>45,81%</t>
   </si>
   <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
   </si>
   <si>
     <t>50,99%</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>55,01%</t>
   </si>
   <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>45,35%</t>
   </si>
   <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>54,8%</t>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
   </si>
   <si>
     <t>44,99%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
   </si>
   <si>
     <t>54,65%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
   </si>
 </sst>
 </file>
@@ -1198,7 +1216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0CD0245-1C7B-47A1-99FF-B7D662DD8F54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06827AB2-0949-4351-B2C4-100B751A2417}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2711,7 +2729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C4FCAB-EAA0-4810-9D68-80D957DD72C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4153626A-78C3-48C7-BAE5-A9F2EEAABEB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,7 +2859,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2850,13 +2868,13 @@
         <v>2078</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2865,13 +2883,13 @@
         <v>3876</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,10 +2904,10 @@
         <v>2942</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2901,10 +2919,10 @@
         <v>4167</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2916,13 +2934,13 @@
         <v>7109</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +3008,13 @@
         <v>3284</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3005,13 +3023,13 @@
         <v>2030</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -3020,13 +3038,13 @@
         <v>5314</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3059,13 @@
         <v>3130</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3056,10 +3074,10 @@
         <v>3285</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3071,13 +3089,13 @@
         <v>6415</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3163,7 @@
         <v>935</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
@@ -3163,7 +3181,7 @@
         <v>19</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>32</v>
@@ -3175,10 +3193,10 @@
         <v>3238</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -3196,7 +3214,7 @@
         <v>1763</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>27</v>
@@ -3217,7 +3235,7 @@
         <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>2</v>
@@ -3226,13 +3244,13 @@
         <v>1763</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3318,13 @@
         <v>2886</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3315,10 +3333,10 @@
         <v>3474</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>19</v>
@@ -3330,13 +3348,13 @@
         <v>6360</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3369,13 @@
         <v>4144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -3366,13 +3384,13 @@
         <v>3374</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -3381,13 +3399,13 @@
         <v>7518</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,7 +3479,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3470,7 +3488,7 @@
         <v>2319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
@@ -3485,13 +3503,13 @@
         <v>2319</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3527,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>32</v>
@@ -3521,7 +3539,7 @@
         <v>2147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>27</v>
@@ -3536,10 +3554,10 @@
         <v>7703</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3610,7 +3628,7 @@
         <v>1781</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>27</v>
@@ -3625,10 +3643,10 @@
         <v>8504</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>19</v>
@@ -3640,13 +3658,13 @@
         <v>10285</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3661,7 +3679,7 @@
         <v>1826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>27</v>
@@ -3676,13 +3694,13 @@
         <v>2038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -3691,13 +3709,13 @@
         <v>3864</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3789,7 @@
         <v>34</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3780,13 +3798,13 @@
         <v>3562</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -3795,13 +3813,13 @@
         <v>3562</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3837,7 @@
         <v>19</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>32</v>
@@ -3831,13 +3849,13 @@
         <v>4639</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3846,13 +3864,13 @@
         <v>9640</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,13 +3938,13 @@
         <v>4442</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -3935,13 +3953,13 @@
         <v>6993</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3950,13 +3968,13 @@
         <v>11434</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3971,13 +3989,13 @@
         <v>5984</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7">
         <v>5</v>
@@ -3986,13 +4004,13 @@
         <v>5912</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4001,13 +4019,13 @@
         <v>11897</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,13 +4093,13 @@
         <v>15126</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H28" s="7">
         <v>28</v>
@@ -4090,13 +4108,13 @@
         <v>31262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -4105,13 +4123,13 @@
         <v>46388</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4126,13 +4144,13 @@
         <v>30346</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H29" s="7">
         <v>23</v>
@@ -4141,13 +4159,13 @@
         <v>25564</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>53</v>
@@ -4156,13 +4174,13 @@
         <v>55910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
